--- a/projectIdea.xlsx
+++ b/projectIdea.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>NAMES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 to c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 to c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pays 45000 to chandler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +148,17 @@
   </si>
   <si>
     <t>10 transactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 (Chandler)</t>
+  </si>
+  <si>
+    <t>0 (Chandler)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 (Rachel)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,13 +267,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +323,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,25 +356,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,16 +645,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="11" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
@@ -614,39 +663,40 @@
     <col min="15" max="15" width="12.25" customWidth="1"/>
     <col min="16" max="16" width="12.375" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="20" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
@@ -665,11 +715,11 @@
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -679,34 +729,34 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1">
         <f>$B3/((LEN(TRIM($D3))-LEN(SUBSTITUTE(TRIM($D3),",",""))+1)+1)</f>
         <v>20000</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <f>IF($C3=F$2, $B3-$E3, (IF(ISNUMBER(SEARCH($F$2,$D3)), -$E3,"")))</f>
         <v>60000</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="5" t="str">
         <f t="shared" ref="G3:K5" si="0">IF($C3=G$2, $B3-$E3, (IF(ISNUMBER(SEARCH(G$2,$D3)), -$E3,"0")))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-      <c r="K3" s="9" t="str">
+      <c r="K3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -714,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -724,34 +774,34 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1">
         <f>$B4/((LEN(TRIM($D4))-LEN(SUBSTITUTE(TRIM($D4),",",""))+1)+1)</f>
         <v>25000</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <f>IF($C4=F$2, $B4-$E4, (IF(ISNUMBER(SEARCH($F$2,$D4)), -$E4,"")))</f>
         <v>-25000</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>-25000</v>
       </c>
@@ -762,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -772,34 +822,34 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1">
         <f>$B5/((LEN(TRIM($D5))-LEN(SUBSTITUTE(TRIM($D5),",",""))+1)+1)</f>
         <v>20000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <f>IF($C5=F$2, $B5-$E5, (IF(ISNUMBER(SEARCH($F$2,$D5)), -$E5,"")))</f>
         <v>-20000</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <f>IF($C5=G$2, $B5-$E5, (IF(ISNUMBER(SEARCH(G$2,$D5)), -$E5,"0")))</f>
         <v>100000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
@@ -810,36 +860,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <f>SUM(F3:F5)</f>
@@ -850,7 +901,7 @@
         <v>100000</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="G7:K7" si="1">SUM(H3:H5)</f>
+        <f t="shared" ref="H7:K7" si="1">SUM(H3:H5)</f>
         <v>-40000</v>
       </c>
       <c r="I7" s="1">
@@ -866,35 +917,40 @@
         <v>-45000</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>100000</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <f>O7+O12</f>
         <v>55000</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <f>IF(ABS(P7) &gt; ABS(P11),P7+P11,0)</f>
         <v>15000</v>
       </c>
-      <c r="R7" s="12">
-        <f>IF(ABS(Q7) &gt; ABS(Q10),Q7+Q10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R7" s="3">
+        <f>IF(Q7=0,0, IF(ABS(Q7) &gt; ABS(Q10),Q7+Q10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f>IF(R7=0,0, IF(ABS(R7) &gt; ABS(R10),R7+R10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <f>IF(S7=0,0, IF(ABS(S7) &gt; ABS(S10),S7+S10,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -902,31 +958,34 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>15000</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>15000</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3">
         <v>15000</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="3">
         <f>IF(ABS(R8) &gt; ABS(R10),R8+R10,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -934,28 +993,33 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>10000</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
         <v>10000</v>
       </c>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -963,59 +1027,69 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <v>-40000</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3">
         <v>-40000</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="3">
         <f>IF(ABS(Q10) &gt; ABS(Q7), Q7+Q10,0)</f>
         <v>-25000</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="3">
         <f>IF(ABS(R10) &gt; ABS(R8), R10+R8,0)</f>
         <v>-10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="3">
         <v>-40000</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1023,26 +1097,33 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <v>-45000</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1051,11 +1132,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1064,11 +1145,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1076,50 +1157,50 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="13" t="s">
-        <v>30</v>
+      <c r="M15" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M16" s="13"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M16" s="10"/>
       <c r="N16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="13"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="13"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M19" s="13"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M20" s="13"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.3">
@@ -1132,7 +1213,6 @@
     <sortCondition descending="1" ref="O7"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="N6:S6"/>
     <mergeCell ref="M15:M20"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="A1:A2"/>
@@ -1140,6 +1220,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
